--- a/工作日志/周报20190423.xlsx
+++ b/工作日志/周报20190423.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>任务类型</t>
   </si>
@@ -86,23 +86,38 @@
     <t>优化</t>
   </si>
   <si>
+    <t>购买住宅后，再购买车位时，校验车位信息时报错</t>
+  </si>
+  <si>
+    <t>需求已确认</t>
+  </si>
+  <si>
+    <t>井明治</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>签订合同时，土地信息获取不到需要后台报错</t>
+  </si>
+  <si>
     <t>合同注销</t>
   </si>
   <si>
+    <t>合同买受人绑定显示证件号码,拆迁合同更改预览</t>
+  </si>
+  <si>
+    <t>孙明星</t>
+  </si>
+  <si>
     <t>需求新增</t>
+  </si>
+  <si>
+    <t>合同注销案件,销售员只能看到未提交和驳回状态的</t>
   </si>
   <si>
     <t xml:space="preserve">合同申报添加绑定买受人与当前选择买受人姓名、证件号码是否相同,不相同不能继续;
 </t>
-  </si>
-  <si>
-    <t>需求已确认</t>
-  </si>
-  <si>
-    <t>孙明星</t>
-  </si>
-  <si>
-    <t>已完成</t>
   </si>
   <si>
     <t>资金监管</t>
@@ -208,7 +223,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +243,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -714,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,137 +747,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,9 +902,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -899,13 +926,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1308,7 +1335,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="19" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
@@ -1317,7 +1344,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1331,13 +1358,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1345,13 +1372,13 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1359,13 +1386,13 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1373,13 +1400,13 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1387,13 +1414,13 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1401,13 +1428,13 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1415,13 +1442,13 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1429,13 +1456,13 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="20">
         <v>0.5</v>
       </c>
     </row>
@@ -1509,10 +1536,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1552,203 +1579,303 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="6" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="65" customHeight="1" spans="1:5">
-      <c r="A5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="7" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="29" customHeight="1" spans="1:6">
-      <c r="A6" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="65" customHeight="1" spans="1:5">
+      <c r="A9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="62" customHeight="1" spans="1:5">
-      <c r="A7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    </row>
+    <row r="11" s="3" customFormat="1" ht="62" customHeight="1" spans="1:5">
+      <c r="A11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="74" customHeight="1" spans="1:5">
+      <c r="A12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="35" customHeight="1" spans="1:5">
+      <c r="A13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="74" customHeight="1" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="35" customHeight="1" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="118" customHeight="1" spans="1:5">
+      <c r="A15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="86" customHeight="1" spans="1:5">
+      <c r="A16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="118" customHeight="1" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="86" customHeight="1" spans="1:5">
-      <c r="A12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>53</v>
+      <c r="C17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
@@ -1768,147 +1895,184 @@
       <formula>"需求新增"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="76" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="48" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="78" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="53" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="79" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="81" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="83" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="36" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="38" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="84" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="61" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="63" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="64" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B8">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="66" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="69" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B12">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="51" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="54" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="71" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="73" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="74" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B16">
+    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="56" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="59" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2 B4">
     <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
       <formula>"新需求"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="33" operator="equal">
       <formula>"需求变更"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
       <formula>"bug"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13">
       <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B11 B12 B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B15 B16 B17">
       <formula1>"bug,优化,新需求,需求变更,需求确认"</formula1>
     </dataValidation>
   </dataValidations>

--- a/工作日志/周报20190423.xlsx
+++ b/工作日志/周报20190423.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="郑方瑞" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="本周工作计划" sheetId="3" r:id="rId2"/>
+    <sheet name="下周工作" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="88">
   <si>
     <t>任务类型</t>
   </si>
@@ -86,7 +87,7 @@
     <t>优化</t>
   </si>
   <si>
-    <t>购买住宅后，再购买车位时，校验车位信息时报错</t>
+    <t>购买住宅后，再购买车位校验车位信息时校验错误，购买车位校验改为，住宅合同转件后校验</t>
   </si>
   <si>
     <t>需求已确认</t>
@@ -98,19 +99,37 @@
     <t>已完成</t>
   </si>
   <si>
+    <t>签订校验车位时，预售合同和现售合同校验失败错误</t>
+  </si>
+  <si>
     <t>签订合同时，土地信息获取不到需要后台报错</t>
   </si>
   <si>
+    <t>需求新增</t>
+  </si>
+  <si>
+    <t>合同管理员在查询合同申报时，添加校验是否缴纳监管资金或者维修基金的功能</t>
+  </si>
+  <si>
     <t>合同注销</t>
   </si>
   <si>
+    <t>合同注销完成后处理合同管理员待办为已办</t>
+  </si>
+  <si>
+    <t>孙明星</t>
+  </si>
+  <si>
+    <t>合同注销中，合同管理员提交合同审核时应提示“注销中不能审核”</t>
+  </si>
+  <si>
+    <t>合同注销中，合同管理员合同转件时应提示“注销中不能转件”</t>
+  </si>
+  <si>
+    <t>合同买受人绑定显示证件号码</t>
+  </si>
+  <si>
     <t>合同买受人绑定显示证件号码,拆迁合同更改预览</t>
-  </si>
-  <si>
-    <t>孙明星</t>
-  </si>
-  <si>
-    <t>需求新增</t>
   </si>
   <si>
     <t>合同注销案件,销售员只能看到未提交和驳回状态的</t>
@@ -123,17 +142,13 @@
     <t>资金监管</t>
   </si>
   <si>
-    <t>预售监管资金扣划管理（可以划拨所有资金）：针对法院、税务部门扣划预售监管资金的管理，监管中心操作，直接对账户资金找那个的余额和利息进行操作</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>账户资金转移管理：支持账户资金由一个账户转移到另一个账户（只支持一对一操作）
-开发商财务发起（校验是否存在正在办理的存入/支出业务如果存在不可发起，发起后账户变更为锁定状态）---》银行管理员（变更银行账户、重新打印监管协议）---》监管中心（重新打印监管证明、原账户注销，原账号流水信息等相关信息绑定到新账号）</t>
-  </si>
-  <si>
-    <t>商品房销售管理系统</t>
+    <t>资金划拨时，监管中心查看详情报错</t>
+  </si>
+  <si>
+    <t>资金监管，案件查询时查询条件业务名称改为流程名称</t>
+  </si>
+  <si>
+    <t>拆迁合同</t>
   </si>
   <si>
     <t>拆迁安置合同，参考现房合同，两套模板可自由选择，根据销售类型(xxlx)=安置（4）
@@ -155,6 +170,111 @@
     <t>贾涛</t>
   </si>
   <si>
+    <t>测绘信息</t>
+  </si>
+  <si>
+    <t>测绘案件资料采集</t>
+  </si>
+  <si>
+    <t>房屋征收管理系统</t>
+  </si>
+  <si>
+    <t>1.行政复议、行政诉讼、信访情况
+2.安置房源信息的管理，调配
+3.征收项目的房屋调查信息、评估报告信息、网签的补偿安置协议、项目竣工验收信息的审批；补偿费用的到账和拨付信息的管理
+4.征收评估：系统上传评估委托书或委托合同，获取所需评估的征收项目信息并填写相应的评估报告
+参考征收系统做</t>
+  </si>
+  <si>
+    <t>徐勇</t>
+  </si>
+  <si>
+    <t>综合信息管理系统</t>
+  </si>
+  <si>
+    <t>棚改项目管理、老旧小区改造、加装电梯，参考现有棚改系统进行改造</t>
+  </si>
+  <si>
+    <t>存量房资金监管系统</t>
+  </si>
+  <si>
+    <t>1.二手房监管账户管理：对监管账户的新增、变更及注销的管理（待定），监管协议生效之前不可变更
+2.二手房监管协议管理：监管协议的签订、变更及注销（待定）</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>2019.05.18</t>
+  </si>
+  <si>
+    <t>房屋交易与产权档案管理</t>
+  </si>
+  <si>
+    <t>1.档案管理的智能自动化。实现档案信息与对应扫描件的自动挂接，实现了档案的案卷号和档案存放位置的自动分配、自动归档等功能，档案的出借、归还管理</t>
+  </si>
+  <si>
+    <t>需求未确认</t>
+  </si>
+  <si>
+    <t>李榕</t>
+  </si>
+  <si>
+    <t>2019.05.20</t>
+  </si>
+  <si>
+    <t>租赁合同备案管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.房源信息核验：中介公司、个人通过系统核验房屋的真实性、有效性，产生租赁房源二维码，并发布（待定）
+不动产权证号、房屋坐落、建筑面积、用途
+2.租赁合同管理：变更、注销，合同备案（待定），发起——》开发办管理员审核结束
+</t>
+  </si>
+  <si>
+    <t>2019.05.25</t>
+  </si>
+  <si>
+    <t>统计分析</t>
+  </si>
+  <si>
+    <t>统计分析规则变动待定</t>
+  </si>
+  <si>
+    <t>合同注销完成后把合同移到历史表contractnew和contract表</t>
+  </si>
+  <si>
+    <t>资金划拨和退款限制条件只能一个案件在进行</t>
+  </si>
+  <si>
+    <t>退款时根据合同查询时，合同信息从历史表查询，否则无法退款</t>
+  </si>
+  <si>
+    <t>存入资金时，不能重复插入accountdetail表</t>
+  </si>
+  <si>
+    <t>划拨资金时，划拨次数是自动填写不能手动输入</t>
+  </si>
+  <si>
+    <t>账户查询、坐落查询，数据统计都从</t>
+  </si>
+  <si>
+    <t>退款时，合同查询从表contractnew_his表里面查询</t>
+  </si>
+  <si>
+    <t>real_depoist字段值必须和depoist值一样</t>
+  </si>
+  <si>
+    <t>利息计算=账号余额+退款+划拨-资金监管存入</t>
+  </si>
+  <si>
+    <t>预售监管资金扣划管理（可以划拨所有资金）：针对法院、税务部门扣划预售监管资金的管理，监管中心操作，直接对账户资金找那个的余额和利息进行操作</t>
+  </si>
+  <si>
+    <t>账户资金转移管理：支持账户资金由一个账户转移到另一个账户（只支持一对一操作）
+开发商财务发起（校验是否存在正在办理的存入/支出业务如果存在不可发起，发起后账户变更为锁定状态）---》银行管理员（变更银行账户、重新打印监管协议）---》监管中心（重新打印监管证明、原账户注销，原账号流水信息等相关信息绑定到新账号）</t>
+  </si>
+  <si>
     <t>测绘成果</t>
   </si>
   <si>
@@ -163,9 +283,6 @@
 2.测绘成果注销：注销原因、附件信息、注销人、时间（创建注销案件）</t>
   </si>
   <si>
-    <t>租赁合同备案管理</t>
-  </si>
-  <si>
     <t>租赁合同管理：合同网上签订：签订时校验
 GetSyqdjxx（所有权登记信息查询）+根据返回信息调用同现房校验接口</t>
   </si>
@@ -174,9 +291,6 @@
   </si>
   <si>
     <t>买卖合同的申报同租赁合同</t>
-  </si>
-  <si>
-    <t>房屋交易与产权档案管理</t>
   </si>
   <si>
     <t>档案出证管理：针对房屋权利人、利害管理人、公检法等部门的查询申请提供查询，保存查询结果，
@@ -188,29 +302,11 @@
 开发企业、坐落、名义层、户室号、面积、规划用途、</t>
   </si>
   <si>
-    <t>李榕</t>
-  </si>
-  <si>
-    <t>房屋征收管理系统</t>
-  </si>
-  <si>
-    <t>1.行政复议、行政诉讼、信访情况
-2.安置房源信息的管理，调配
-3.征收项目的房屋调查信息、评估报告信息、网签的补偿安置协议、项目竣工验收信息的审批；补偿费用的到账和拨付信息的管理
-4.征收评估：系统上传评估委托书或委托合同，获取所需评估的征收项目信息并填写相应的评估报告
-参考征收系统做</t>
-  </si>
-  <si>
-    <t>综合信息管理系统</t>
-  </si>
-  <si>
-    <t>棚改项目管理、老旧小区改造、加装电梯，参考现有棚改系统进行改造</t>
-  </si>
-  <si>
-    <t>贾涛、徐勇</t>
-  </si>
-  <si>
-    <t>2019.05.12</t>
+    <t xml:space="preserve">1.房源信息核验：中介公司、个人通过系统核验房屋的真实性、有效性，产生租赁房源二维码，
+生成二维码：不动产权证号、房屋坐落、建筑面积、用途
+不动产权证号、房屋坐落、建筑面积、用途
+2.租赁合同管理：变更、注销，合同备案（待定），发起——》开发办管理员审核结束
+</t>
   </si>
 </sst>
 </file>
@@ -219,8 +315,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -268,17 +364,44 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,8 +415,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,36 +440,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +451,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,30 +480,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,8 +500,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,187 +517,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,54 +741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -717,6 +765,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -727,6 +799,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -735,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,137 +843,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,8 +998,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,21 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,14 +1117,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.4"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="3" tint="0.4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1335,7 +1434,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="19" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="20" customWidth="1"/>
     <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
@@ -1344,7 +1443,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1358,13 +1457,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1372,13 +1471,13 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1386,13 +1485,13 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1400,13 +1499,13 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1414,13 +1513,13 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1428,13 +1527,13 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1442,13 +1541,13 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1456,13 +1555,13 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="21">
         <v>0.5</v>
       </c>
     </row>
@@ -1536,20 +1635,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="$A20:$XFD20 $A22:$XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="85.625" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1570,509 +1669,797 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="19" customHeight="1" spans="1:2">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>28</v>
+    <row r="5" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
-      <c r="A6" s="9" t="s">
-        <v>28</v>
+    <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A6" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="19" customHeight="1" spans="1:6">
-      <c r="A7" s="9" t="s">
-        <v>28</v>
+    <row r="7" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A7" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>34</v>
+    <row r="8" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A8" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="65" customHeight="1" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="29" customHeight="1" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="62" customHeight="1" spans="1:5">
+    <row r="11" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
       <c r="A11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="1" ht="74" customHeight="1" spans="1:5">
-      <c r="A12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="35" customHeight="1" spans="1:5">
-      <c r="A13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" ht="26" customHeight="1" spans="1:5">
-      <c r="A14" s="15" t="s">
-        <v>48</v>
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="19" customHeight="1" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" ht="118" customHeight="1" spans="1:5">
-      <c r="A15" s="15" t="s">
-        <v>50</v>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="29" customHeight="1" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="86" customHeight="1" spans="1:5">
-      <c r="A16" s="17" t="s">
-        <v>53</v>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="62" customHeight="1" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" s="4" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A17" s="18" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A17" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="86" customHeight="1" spans="1:6">
+      <c r="A18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="D20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="F20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="38" customHeight="1" spans="1:7">
+      <c r="A21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" ht="55" customHeight="1" spans="1:7">
+      <c r="A22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
+      <c r="A23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="86" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="87" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="89" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="90" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="2" priority="28" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="56" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="55" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="53" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="52" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="92" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="93" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="94" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="95" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="96" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>"优化"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="58" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="59" operator="equal">
       <formula>"需求确认"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="61" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="62" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="64" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="65" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="66" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="67" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="68" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="76" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="78" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="79" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="81" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="83" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="84" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="40" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="41" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="43" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="44" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="46" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="47" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="49" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="50" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="0" priority="117" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="118" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="120" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="121" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="0" priority="112" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="113" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="114" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="115" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="116" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"优化"</formula>
+      <formula>"需求确认"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B5:B6">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17">
+    <cfRule type="cellIs" dxfId="0" priority="132" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="133" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="134" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="135" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="136" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"需求新增"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="76" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="79" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="81" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="83" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="84" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="61" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="63" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="64" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="66" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="69" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="51" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="54" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B12">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="71" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="73" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="74" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B16">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="56" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="59" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2 B4">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
-      <formula>"需求新增"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
-      <formula>"优化"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
-      <formula>"需求确认"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
-      <formula>"新需求"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="equal">
-      <formula>"需求变更"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
-      <formula>"bug"</formula>
-    </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B23">
       <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B15 B16 B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18 B19 B20 B21 B22">
       <formula1>"bug,优化,新需求,需求变更,需求确认"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2080,4 +2467,523 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="84.25" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="65" customHeight="1" spans="1:5">
+      <c r="A12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="74" customHeight="1" spans="1:5">
+      <c r="A13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="35" customHeight="1" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="118" customHeight="1" spans="1:5">
+      <c r="A16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="75" customHeight="1" spans="1:7">
+      <c r="A18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="35" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="36" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="39" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="0" priority="117" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="118" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="120" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="121" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="0" priority="122" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="123" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="124" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="125" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="126" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="0" priority="112" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="113" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="114" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="115" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="116" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="0" priority="102" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="103" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="104" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="105" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="106" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="108" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="110" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="111" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="0" priority="97" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="98" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="100" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="101" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B9">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+      <formula>"需求新增"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="41" operator="equal">
+      <formula>"优化"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="42" operator="equal">
+      <formula>"需求确认"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+      <formula>"新需求"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+      <formula>"需求变更"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="45" operator="equal">
+      <formula>"bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B8 B9 B10 B11 B12 B13 B14 B6:B7">
+      <formula1>"bug,优化,新需求,需求变更,需求确认,需求新增"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B16 B17 B18">
+      <formula1>"bug,优化,新需求,需求变更,需求确认"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>